--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Nxph3</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3340383333333333</v>
+        <v>0.07940033333333334</v>
       </c>
       <c r="H2">
-        <v>1.002115</v>
+        <v>0.238201</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2424709127739492</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3243800105402634</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N2">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O2">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P2">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q2">
-        <v>0.08581990379277776</v>
+        <v>0.0007323886746666667</v>
       </c>
       <c r="R2">
-        <v>0.7723791341349999</v>
+        <v>0.006591498071999999</v>
       </c>
       <c r="S2">
-        <v>0.2154602692984302</v>
+        <v>0.004036436334294702</v>
       </c>
       <c r="T2">
-        <v>0.2443643158836536</v>
+        <v>0.005507664964182231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3340383333333333</v>
+        <v>0.07940033333333334</v>
       </c>
       <c r="H3">
-        <v>1.002115</v>
+        <v>0.238201</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2424709127739492</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3243800105402634</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.537103</v>
       </c>
       <c r="O3">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P3">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q3">
-        <v>0.1711504414272222</v>
+        <v>0.04068216352255555</v>
       </c>
       <c r="R3">
-        <v>1.540353972845</v>
+        <v>0.366139471703</v>
       </c>
       <c r="S3">
-        <v>0.4296919312505433</v>
+        <v>0.2242128649448319</v>
       </c>
       <c r="T3">
-        <v>0.4873352064520506</v>
+        <v>0.3059355427666739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.07940033333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.238201</v>
+      </c>
+      <c r="I4">
+        <v>0.2424709127739492</v>
+      </c>
+      <c r="J4">
+        <v>0.3243800105402634</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.032499</v>
+      </c>
+      <c r="N4">
+        <v>0.064998</v>
+      </c>
+      <c r="O4">
+        <v>0.05865285585030608</v>
+      </c>
+      <c r="P4">
+        <v>0.03988162768680055</v>
+      </c>
+      <c r="Q4">
+        <v>0.002580431433</v>
+      </c>
+      <c r="R4">
+        <v>0.015482588598</v>
+      </c>
+      <c r="S4">
+        <v>0.01422161149482258</v>
+      </c>
+      <c r="T4">
+        <v>0.01293680280940722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.248063</v>
+      </c>
+      <c r="H5">
+        <v>0.496126</v>
+      </c>
+      <c r="I5">
+        <v>0.7575290872260508</v>
+      </c>
+      <c r="J5">
+        <v>0.6756199894597367</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.009224</v>
+      </c>
+      <c r="N5">
+        <v>0.027672</v>
+      </c>
+      <c r="O5">
+        <v>0.01664709506025488</v>
+      </c>
+      <c r="P5">
+        <v>0.01697905168388481</v>
+      </c>
+      <c r="Q5">
+        <v>0.002288133112</v>
+      </c>
+      <c r="R5">
+        <v>0.013728798672</v>
+      </c>
+      <c r="S5">
+        <v>0.01261065872596018</v>
+      </c>
+      <c r="T5">
+        <v>0.01147138671970258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.3340383333333333</v>
-      </c>
-      <c r="H4">
-        <v>1.002115</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.423123</v>
-      </c>
-      <c r="N4">
-        <v>0.8462460000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.3548477994510263</v>
-      </c>
-      <c r="P4">
-        <v>0.2683004776642958</v>
-      </c>
-      <c r="Q4">
-        <v>0.141339301715</v>
-      </c>
-      <c r="R4">
-        <v>0.84803581029</v>
-      </c>
-      <c r="S4">
-        <v>0.3548477994510263</v>
-      </c>
-      <c r="T4">
-        <v>0.2683004776642958</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.248063</v>
+      </c>
+      <c r="H6">
+        <v>0.496126</v>
+      </c>
+      <c r="I6">
+        <v>0.7575290872260508</v>
+      </c>
+      <c r="J6">
+        <v>0.6756199894597367</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.537103</v>
+      </c>
+      <c r="O6">
+        <v>0.9247000490894389</v>
+      </c>
+      <c r="P6">
+        <v>0.9431393206293146</v>
+      </c>
+      <c r="Q6">
+        <v>0.1270994604963333</v>
+      </c>
+      <c r="R6">
+        <v>0.7625967629780001</v>
+      </c>
+      <c r="S6">
+        <v>0.7004871841446071</v>
+      </c>
+      <c r="T6">
+        <v>0.6372037778626407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.248063</v>
+      </c>
+      <c r="H7">
+        <v>0.496126</v>
+      </c>
+      <c r="I7">
+        <v>0.7575290872260508</v>
+      </c>
+      <c r="J7">
+        <v>0.6756199894597367</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.032499</v>
+      </c>
+      <c r="N7">
+        <v>0.064998</v>
+      </c>
+      <c r="O7">
+        <v>0.05865285585030608</v>
+      </c>
+      <c r="P7">
+        <v>0.03988162768680055</v>
+      </c>
+      <c r="Q7">
+        <v>0.008061799437</v>
+      </c>
+      <c r="R7">
+        <v>0.032247197748</v>
+      </c>
+      <c r="S7">
+        <v>0.0444312443554835</v>
+      </c>
+      <c r="T7">
+        <v>0.02694482487739333</v>
       </c>
     </row>
   </sheetData>
